--- a/応用情報技術者_学習ノート.xlsx
+++ b/応用情報技術者_学習ノート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\piyopiyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D44C22-D08A-432C-A213-CEDE07BE004C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC0FB98-7F88-46C3-9D71-931A6C3E18E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="3930" windowWidth="26325" windowHeight="15450" xr2:uid="{AEA3DC70-405F-45C2-B1EB-75A66EEDCCE0}"/>
+    <workbookView xWindow="2475" yWindow="270" windowWidth="25440" windowHeight="15330" xr2:uid="{AEA3DC70-405F-45C2-B1EB-75A66EEDCCE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>分野</t>
     <rPh sb="0" eb="2">
@@ -294,6 +294,10 @@
     <rPh sb="26" eb="28">
       <t>デンゲン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あああああ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -658,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D4459B-C9DA-46CD-9AA0-4323BAA0E9A7}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -768,6 +772,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
